--- a/resultats_der.xlsx
+++ b/resultats_der.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudlasalle-my.sharepoint.com/personal/hamilton_araujo_unilasalle_fr/Documents/Bureau/maths_partage/app_maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABDACC10480B01585D1A5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3201B38E-67E4-4F80-A0A4-20CE71FA9780}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC10480B01585D1A5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF058797-1F10-DC44-B1E1-45DF086E9D76}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="der_t1_2511" sheetId="2" r:id="rId1"/>
     <sheet name="der_t2_0212" sheetId="3" r:id="rId2"/>
     <sheet name="der_t3_0912" sheetId="1" r:id="rId3"/>
+    <sheet name="der_t4_1612" sheetId="4" r:id="rId4"/>
+    <sheet name="der_t5_2012" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="921">
   <si>
     <t>Nom de famille</t>
   </si>
@@ -2471,6 +2473,336 @@
   </si>
   <si>
     <t>10 min 3 s</t>
+  </si>
+  <si>
+    <t>9 min 42 s</t>
+  </si>
+  <si>
+    <t>28 min 42 s</t>
+  </si>
+  <si>
+    <t>22 min 16 s</t>
+  </si>
+  <si>
+    <t>8 min 58 s</t>
+  </si>
+  <si>
+    <t>33 min 1 s</t>
+  </si>
+  <si>
+    <t>27 min 2 s</t>
+  </si>
+  <si>
+    <t>21 min 33 s</t>
+  </si>
+  <si>
+    <t>17 min 52 s</t>
+  </si>
+  <si>
+    <t>26 min 3 s</t>
+  </si>
+  <si>
+    <t>19 min 9 s</t>
+  </si>
+  <si>
+    <t>14 min 25 s</t>
+  </si>
+  <si>
+    <t>PROTIN</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>ethan.protin@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>29 min 4 s</t>
+  </si>
+  <si>
+    <t>ALLART</t>
+  </si>
+  <si>
+    <t>Abigaelle</t>
+  </si>
+  <si>
+    <t>abigaelle.allart@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>19 min 41 s</t>
+  </si>
+  <si>
+    <t>10 min 15 s</t>
+  </si>
+  <si>
+    <t>14 min 5 s</t>
+  </si>
+  <si>
+    <t>DESPRES</t>
+  </si>
+  <si>
+    <t>Maylis</t>
+  </si>
+  <si>
+    <t>maylis.despres@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>23 min 29 s</t>
+  </si>
+  <si>
+    <t>15 min 53 s</t>
+  </si>
+  <si>
+    <t>24 min 16 s</t>
+  </si>
+  <si>
+    <t>10 min 27 s</t>
+  </si>
+  <si>
+    <t>18 min 31 s</t>
+  </si>
+  <si>
+    <t>15 min 9 s</t>
+  </si>
+  <si>
+    <t>19 min 45 s</t>
+  </si>
+  <si>
+    <t>KIHL</t>
+  </si>
+  <si>
+    <t>jeanne.kihl@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>27 min 18 s</t>
+  </si>
+  <si>
+    <t>GROBELNY</t>
+  </si>
+  <si>
+    <t>pierre.grobelny@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>28 min 39 s</t>
+  </si>
+  <si>
+    <t>13 min 18 s</t>
+  </si>
+  <si>
+    <t>20 min 54 s</t>
+  </si>
+  <si>
+    <t>19 min 23 s</t>
+  </si>
+  <si>
+    <t>29 min 17 s</t>
+  </si>
+  <si>
+    <t>10 min 42 s</t>
+  </si>
+  <si>
+    <t>7 min 28 s</t>
+  </si>
+  <si>
+    <t>SENEZ</t>
+  </si>
+  <si>
+    <t>Celeste</t>
+  </si>
+  <si>
+    <t>celeste.senez@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>11 min 4 s</t>
+  </si>
+  <si>
+    <t>7 min 23 s</t>
+  </si>
+  <si>
+    <t>18 min 37 s</t>
+  </si>
+  <si>
+    <t>38 min 2 s</t>
+  </si>
+  <si>
+    <t>7 min 16 s</t>
+  </si>
+  <si>
+    <t>8 min 6 s</t>
+  </si>
+  <si>
+    <t>SANSOIT</t>
+  </si>
+  <si>
+    <t>Clement</t>
+  </si>
+  <si>
+    <t>clement.sansoit@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>11 min 9 s</t>
+  </si>
+  <si>
+    <t>7 min 59 s</t>
+  </si>
+  <si>
+    <t>5 min 55 s</t>
+  </si>
+  <si>
+    <t>HARDY</t>
+  </si>
+  <si>
+    <t>louis.hardy@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>5 min 16 s</t>
+  </si>
+  <si>
+    <t>GANGNITO</t>
+  </si>
+  <si>
+    <t>Cassandre</t>
+  </si>
+  <si>
+    <t>cassandre.gangnito@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>19 min 27 s</t>
+  </si>
+  <si>
+    <t>21 min 47 s</t>
+  </si>
+  <si>
+    <t>CATHEAU</t>
+  </si>
+  <si>
+    <t>Agathe</t>
+  </si>
+  <si>
+    <t>agathe.catheau@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>8 min 47 s</t>
+  </si>
+  <si>
+    <t>7 min 26 s</t>
+  </si>
+  <si>
+    <t>5 min 59 s</t>
+  </si>
+  <si>
+    <t>9 min 27 s</t>
+  </si>
+  <si>
+    <t>19 min 50 s</t>
+  </si>
+  <si>
+    <t>14 min 12 s</t>
+  </si>
+  <si>
+    <t>4 min 14 s</t>
+  </si>
+  <si>
+    <t>13 min 19 s</t>
+  </si>
+  <si>
+    <t>11 s</t>
+  </si>
+  <si>
+    <t>12 s</t>
+  </si>
+  <si>
+    <t>17 min 15 s</t>
+  </si>
+  <si>
+    <t>17 min 28 s</t>
+  </si>
+  <si>
+    <t>MENASSA</t>
+  </si>
+  <si>
+    <t>Cybele</t>
+  </si>
+  <si>
+    <t>cybele.menassa@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>6 min 26 s</t>
+  </si>
+  <si>
+    <t>8 min 27 s</t>
+  </si>
+  <si>
+    <t>8 min 36 s</t>
+  </si>
+  <si>
+    <t>16 min 18 s</t>
+  </si>
+  <si>
+    <t>11 min 12 s</t>
+  </si>
+  <si>
+    <t>12 min 22 s</t>
+  </si>
+  <si>
+    <t>23 min 41 s</t>
+  </si>
+  <si>
+    <t>8 min 50 s</t>
+  </si>
+  <si>
+    <t>23 min 51 s</t>
+  </si>
+  <si>
+    <t>14 min 17 s</t>
+  </si>
+  <si>
+    <t>11 min 11 s</t>
+  </si>
+  <si>
+    <t>11 min 18 s</t>
+  </si>
+  <si>
+    <t>11 min 57 s</t>
+  </si>
+  <si>
+    <t>6 min 25 s</t>
+  </si>
+  <si>
+    <t>6 min 1 s</t>
+  </si>
+  <si>
+    <t>10 min 54 s</t>
+  </si>
+  <si>
+    <t>28 min 10 s</t>
+  </si>
+  <si>
+    <t>11 min 14 s</t>
+  </si>
+  <si>
+    <t>13 min 31 s</t>
+  </si>
+  <si>
+    <t>8 min 35 s</t>
+  </si>
+  <si>
+    <t>5 min 32 s</t>
+  </si>
+  <si>
+    <t>13 min 4 s</t>
+  </si>
+  <si>
+    <t>12 min 55 s</t>
+  </si>
+  <si>
+    <t>8 min 46 s</t>
+  </si>
+  <si>
+    <t>6 min 18 s</t>
+  </si>
+  <si>
+    <t>37 min 45 s</t>
   </si>
 </sst>
 </file>
@@ -2489,6 +2821,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2512,10 +2845,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2807,15 +3138,15 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2856,7 +3187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2898,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2940,7 +3271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2982,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3024,7 +3355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3066,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3108,7 +3439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -3150,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -3192,7 +3523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -3234,7 +3565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -3276,7 +3607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -3318,7 +3649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -3360,7 +3691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -3402,7 +3733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3444,7 +3775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -3486,7 +3817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -3528,7 +3859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -3570,7 +3901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -3612,7 +3943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -3654,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -3696,7 +4027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -3738,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -3780,7 +4111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -3822,7 +4153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -3864,7 +4195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -3906,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -3948,7 +4279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -3990,7 +4321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -4032,7 +4363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -4074,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -4116,7 +4447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -4158,7 +4489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -4200,7 +4531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -4242,7 +4573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>110</v>
       </c>
@@ -4284,7 +4615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -4326,7 +4657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -4368,7 +4699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -4410,7 +4741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -4452,7 +4783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -4494,7 +4825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -4536,7 +4867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>130</v>
       </c>
@@ -4578,7 +4909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -4620,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -4662,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -4704,7 +5035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>142</v>
       </c>
@@ -4746,7 +5077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -4788,7 +5119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -4830,7 +5161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -4872,7 +5203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>154</v>
       </c>
@@ -4914,7 +5245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -4956,7 +5287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>160</v>
       </c>
@@ -4998,7 +5329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>162</v>
       </c>
@@ -5040,7 +5371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -5082,7 +5413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>168</v>
       </c>
@@ -5124,7 +5455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>171</v>
       </c>
@@ -5166,7 +5497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>174</v>
       </c>
@@ -5208,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>177</v>
       </c>
@@ -5250,7 +5581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>179</v>
       </c>
@@ -5292,7 +5623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -5334,7 +5665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -5376,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -5418,7 +5749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -5460,7 +5791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -5502,7 +5833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -5544,7 +5875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -5586,7 +5917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>201</v>
       </c>
@@ -5628,7 +5959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>204</v>
       </c>
@@ -5670,7 +6001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>207</v>
       </c>
@@ -5712,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>209</v>
       </c>
@@ -5754,7 +6085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -5796,7 +6127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -5838,7 +6169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>217</v>
       </c>
@@ -5880,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>219</v>
       </c>
@@ -5922,7 +6253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>222</v>
       </c>
@@ -5964,7 +6295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -6006,7 +6337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>226</v>
       </c>
@@ -6048,7 +6379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>229</v>
       </c>
@@ -6090,7 +6421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>232</v>
       </c>
@@ -6132,7 +6463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>235</v>
       </c>
@@ -6174,7 +6505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>237</v>
       </c>
@@ -6216,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>240</v>
       </c>
@@ -6258,7 +6589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>243</v>
       </c>
@@ -6300,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>246</v>
       </c>
@@ -6342,7 +6673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>249</v>
       </c>
@@ -6384,7 +6715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>251</v>
       </c>
@@ -6426,7 +6757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>254</v>
       </c>
@@ -6468,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>257</v>
       </c>
@@ -6510,7 +6841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>260</v>
       </c>
@@ -6552,7 +6883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>263</v>
       </c>
@@ -6594,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>265</v>
       </c>
@@ -6636,7 +6967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>268</v>
       </c>
@@ -6678,7 +7009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>271</v>
       </c>
@@ -6720,7 +7051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>273</v>
       </c>
@@ -6762,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>276</v>
       </c>
@@ -6804,7 +7135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>278</v>
       </c>
@@ -6846,7 +7177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>280</v>
       </c>
@@ -6888,7 +7219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>283</v>
       </c>
@@ -6930,7 +7261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>286</v>
       </c>
@@ -6972,7 +7303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>289</v>
       </c>
@@ -7030,9 +7361,9 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7073,7 +7404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -7115,7 +7446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>295</v>
       </c>
@@ -7157,7 +7488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>298</v>
       </c>
@@ -7199,7 +7530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>301</v>
       </c>
@@ -7241,7 +7572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>304</v>
       </c>
@@ -7283,7 +7614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -7325,7 +7656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>309</v>
       </c>
@@ -7367,7 +7698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>311</v>
       </c>
@@ -7409,7 +7740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>314</v>
       </c>
@@ -7451,7 +7782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>317</v>
       </c>
@@ -7493,7 +7824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>320</v>
       </c>
@@ -7535,7 +7866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>323</v>
       </c>
@@ -7577,7 +7908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -7619,7 +7950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>254</v>
       </c>
@@ -7661,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>326</v>
       </c>
@@ -7703,7 +8034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>283</v>
       </c>
@@ -7745,7 +8076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>330</v>
       </c>
@@ -7787,7 +8118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>333</v>
       </c>
@@ -7829,7 +8160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>335</v>
       </c>
@@ -7871,7 +8202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>338</v>
       </c>
@@ -7913,7 +8244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>268</v>
       </c>
@@ -7955,7 +8286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>340</v>
       </c>
@@ -7997,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>342</v>
       </c>
@@ -8039,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -8081,7 +8412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>345</v>
       </c>
@@ -8123,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>174</v>
       </c>
@@ -8165,7 +8496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>348</v>
       </c>
@@ -8207,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>350</v>
       </c>
@@ -8249,7 +8580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>353</v>
       </c>
@@ -8291,7 +8622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>355</v>
       </c>
@@ -8333,7 +8664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>358</v>
       </c>
@@ -8375,7 +8706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>361</v>
       </c>
@@ -8417,7 +8748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>364</v>
       </c>
@@ -8459,7 +8790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>367</v>
       </c>
@@ -8501,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>369</v>
       </c>
@@ -8543,7 +8874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>372</v>
       </c>
@@ -8585,7 +8916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>375</v>
       </c>
@@ -8627,7 +8958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>377</v>
       </c>
@@ -8669,7 +9000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -8711,7 +9042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>379</v>
       </c>
@@ -8753,7 +9084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>382</v>
       </c>
@@ -8795,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>385</v>
       </c>
@@ -8837,7 +9168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>387</v>
       </c>
@@ -8879,7 +9210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -8921,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>389</v>
       </c>
@@ -8963,7 +9294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>391</v>
       </c>
@@ -9005,7 +9336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>393</v>
       </c>
@@ -9047,7 +9378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>396</v>
       </c>
@@ -9089,7 +9420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>398</v>
       </c>
@@ -9131,7 +9462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>401</v>
       </c>
@@ -9173,7 +9504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>403</v>
       </c>
@@ -9215,7 +9546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>406</v>
       </c>
@@ -9257,7 +9588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>382</v>
       </c>
@@ -9299,7 +9630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>410</v>
       </c>
@@ -9341,7 +9672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -9383,7 +9714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>413</v>
       </c>
@@ -9425,7 +9756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>415</v>
       </c>
@@ -9467,7 +9798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>417</v>
       </c>
@@ -9509,7 +9840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>419</v>
       </c>
@@ -9551,7 +9882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>263</v>
       </c>
@@ -9593,7 +9924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>271</v>
       </c>
@@ -9635,7 +9966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>422</v>
       </c>
@@ -9677,7 +10008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>424</v>
       </c>
@@ -9719,7 +10050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>427</v>
       </c>
@@ -9761,7 +10092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>429</v>
       </c>
@@ -9803,7 +10134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>432</v>
       </c>
@@ -9845,7 +10176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>435</v>
       </c>
@@ -9887,7 +10218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>438</v>
       </c>
@@ -9929,7 +10260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>222</v>
       </c>
@@ -9971,7 +10302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>440</v>
       </c>
@@ -10013,7 +10344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>443</v>
       </c>
@@ -10055,7 +10386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>445</v>
       </c>
@@ -10097,7 +10428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>447</v>
       </c>
@@ -10139,7 +10470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>450</v>
       </c>
@@ -10181,7 +10512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>453</v>
       </c>
@@ -10223,7 +10554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>456</v>
       </c>
@@ -10265,7 +10596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>204</v>
       </c>
@@ -10307,7 +10638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>459</v>
       </c>
@@ -10349,7 +10680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>462</v>
       </c>
@@ -10391,7 +10722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>465</v>
       </c>
@@ -10433,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>467</v>
       </c>
@@ -10475,7 +10806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>469</v>
       </c>
@@ -10517,7 +10848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>472</v>
       </c>
@@ -10559,7 +10890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>475</v>
       </c>
@@ -10601,7 +10932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>249</v>
       </c>
@@ -10643,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>477</v>
       </c>
@@ -10685,7 +11016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>479</v>
       </c>
@@ -10727,7 +11058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>482</v>
       </c>
@@ -10769,7 +11100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>484</v>
       </c>
@@ -10811,7 +11142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>486</v>
       </c>
@@ -10853,7 +11184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>489</v>
       </c>
@@ -10895,7 +11226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>491</v>
       </c>
@@ -10937,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>493</v>
       </c>
@@ -10979,7 +11310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>496</v>
       </c>
@@ -11021,7 +11352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>499</v>
       </c>
@@ -11063,7 +11394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>501</v>
       </c>
@@ -11105,7 +11436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -11147,7 +11478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>505</v>
       </c>
@@ -11189,7 +11520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>507</v>
       </c>
@@ -11231,7 +11562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>509</v>
       </c>
@@ -11273,7 +11604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>512</v>
       </c>
@@ -11315,7 +11646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>515</v>
       </c>
@@ -11357,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>518</v>
       </c>
@@ -11399,7 +11730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>260</v>
       </c>
@@ -11441,7 +11772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>520</v>
       </c>
@@ -11483,7 +11814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>523</v>
       </c>
@@ -11525,7 +11856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>526</v>
       </c>
@@ -11567,7 +11898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>240</v>
       </c>
@@ -11609,7 +11940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>529</v>
       </c>
@@ -11651,7 +11982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>532</v>
       </c>
@@ -11693,7 +12024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>535</v>
       </c>
@@ -11735,7 +12066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>133</v>
       </c>
@@ -11777,7 +12108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>537</v>
       </c>
@@ -11819,7 +12150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>540</v>
       </c>
@@ -11861,7 +12192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>543</v>
       </c>
@@ -11903,7 +12234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>546</v>
       </c>
@@ -11945,7 +12276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>548</v>
       </c>
@@ -11987,7 +12318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>550</v>
       </c>
@@ -12029,7 +12360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>552</v>
       </c>
@@ -12071,7 +12402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>554</v>
       </c>
@@ -12113,7 +12444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>557</v>
       </c>
@@ -12155,7 +12486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>550</v>
       </c>
@@ -12197,7 +12528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>562</v>
       </c>
@@ -12239,7 +12570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>564</v>
       </c>
@@ -12281,7 +12612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>566</v>
       </c>
@@ -12323,7 +12654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>569</v>
       </c>
@@ -12365,7 +12696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>571</v>
       </c>
@@ -12407,7 +12738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>573</v>
       </c>
@@ -12449,7 +12780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>576</v>
       </c>
@@ -12491,7 +12822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>578</v>
       </c>
@@ -12533,7 +12864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>273</v>
       </c>
@@ -12575,7 +12906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>278</v>
       </c>
@@ -12617,7 +12948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>289</v>
       </c>
@@ -12668,20 +12999,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="86" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -12718,14 +13049,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>581</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" s="1" t="str">
         <f>A2&amp;B2</f>
         <v>BOEHLEREnzo</v>
       </c>
@@ -12735,7 +13066,7 @@
       <c r="E2" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -12763,14 +13094,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>588</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="1" t="str">
         <f t="shared" ref="C3:C66" si="0">A3&amp;B3</f>
         <v>CARETTEHugo</v>
       </c>
@@ -12780,7 +13111,7 @@
       <c r="E3" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -12808,14 +13139,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>591</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GUILBERTAlban</v>
       </c>
@@ -12825,7 +13156,7 @@
       <c r="E4" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>8.5</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -12853,14 +13184,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LECATThomas</v>
       </c>
@@ -12870,7 +13201,7 @@
       <c r="E5" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -12898,14 +13229,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>NOLLET-PROISYLaurelenn</v>
       </c>
@@ -12915,7 +13246,7 @@
       <c r="E6" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -12943,14 +13274,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>353</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LAURENTEliott</v>
       </c>
@@ -12960,7 +13291,7 @@
       <c r="E7" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -12988,14 +13319,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>599</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>HEUSSEVictorien</v>
       </c>
@@ -13005,7 +13336,7 @@
       <c r="E8" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>5.25</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -13033,14 +13364,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="3" t="str">
+      <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RANNOUAnnaelle</v>
       </c>
@@ -13050,7 +13381,7 @@
       <c r="E9" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>11.75</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -13078,14 +13409,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>603</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LETELLIERClara</v>
       </c>
@@ -13095,7 +13426,7 @@
       <c r="E10" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -13123,14 +13454,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>546</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LANDSBERG- URIONApolline</v>
       </c>
@@ -13140,7 +13471,7 @@
       <c r="E11" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>11.75</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -13168,14 +13499,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>608</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MONTEILCamille</v>
       </c>
@@ -13185,7 +13516,7 @@
       <c r="E12" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -13213,14 +13544,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MENNERET-COUTURIERHugo</v>
       </c>
@@ -13230,7 +13561,7 @@
       <c r="E13" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>12.25</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -13258,14 +13589,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LOUCHARTLouise</v>
       </c>
@@ -13275,7 +13606,7 @@
       <c r="E14" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>10.5</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -13303,14 +13634,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>614</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DEMESYEnguerrand</v>
       </c>
@@ -13320,7 +13651,7 @@
       <c r="E15" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -13348,14 +13679,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="3" t="str">
+      <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GENTIENFlavie</v>
       </c>
@@ -13365,7 +13696,7 @@
       <c r="E16" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>9.25</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -13393,14 +13724,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>618</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C17" s="3" t="str">
+      <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>VINCANTManon</v>
       </c>
@@ -13410,7 +13741,7 @@
       <c r="E17" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -13438,14 +13769,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>622</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C18" s="3" t="str">
+      <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>TRAOREYelina Nissy Alison</v>
       </c>
@@ -13455,7 +13786,7 @@
       <c r="E18" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -13483,14 +13814,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PETITPaul</v>
       </c>
@@ -13500,7 +13831,7 @@
       <c r="E19" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>5</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -13528,14 +13859,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>627</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C20" s="3" t="str">
+      <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PELARDBerenice</v>
       </c>
@@ -13545,7 +13876,7 @@
       <c r="E20" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>7.25</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -13573,14 +13904,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>631</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="3" t="str">
+      <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RAVELOJAONAArthur</v>
       </c>
@@ -13590,7 +13921,7 @@
       <c r="E21" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -13618,14 +13949,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>634</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GONARDJohan</v>
       </c>
@@ -13635,7 +13966,7 @@
       <c r="E22" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -13663,14 +13994,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>POPOTTimothee</v>
       </c>
@@ -13680,7 +14011,7 @@
       <c r="E23" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>12.25</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -13708,14 +14039,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>639</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RIVIERRECamille</v>
       </c>
@@ -13725,7 +14056,7 @@
       <c r="E24" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>9.25</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -13753,14 +14084,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>JACQUESAlix</v>
       </c>
@@ -13770,7 +14101,7 @@
       <c r="E25" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>14.75</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -13798,14 +14129,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>AMORYLucie</v>
       </c>
@@ -13815,7 +14146,7 @@
       <c r="E26" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>7</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -13843,14 +14174,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>644</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GUITTARDClementine</v>
       </c>
@@ -13860,7 +14191,7 @@
       <c r="E27" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>6</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -13888,14 +14219,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>648</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C28" s="3" t="str">
+      <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>TROYJosephine</v>
       </c>
@@ -13905,7 +14236,7 @@
       <c r="E28" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>7</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -13933,14 +14264,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>652</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C29" s="3" t="str">
+      <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FANSiying</v>
       </c>
@@ -13950,7 +14281,7 @@
       <c r="E29" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>17</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -13978,14 +14309,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="3" t="str">
+      <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BERTEAUThomas</v>
       </c>
@@ -13995,7 +14326,7 @@
       <c r="E30" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>7</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -14023,14 +14354,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C31" s="3" t="str">
+      <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CHAMPIGNONLouise</v>
       </c>
@@ -14040,7 +14371,7 @@
       <c r="E31" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>11.5</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -14068,14 +14399,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>658</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="3" t="str">
+      <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ALLIZARTLucie</v>
       </c>
@@ -14085,7 +14416,7 @@
       <c r="E32" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>12.25</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -14113,14 +14444,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C33" s="3" t="str">
+      <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BOSTYNMaewan</v>
       </c>
@@ -14130,7 +14461,7 @@
       <c r="E33" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>14.75</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -14158,14 +14489,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>662</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="3" t="str">
+      <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAUCHERMartin</v>
       </c>
@@ -14175,7 +14506,7 @@
       <c r="E34" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>15</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -14203,14 +14534,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>665</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C35" s="3" t="str">
+      <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LECOINTEEnzo</v>
       </c>
@@ -14220,7 +14551,7 @@
       <c r="E35" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>8</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -14248,14 +14579,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C36" s="3" t="str">
+      <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CHIEN-CHOW-CHINEJules</v>
       </c>
@@ -14265,7 +14596,7 @@
       <c r="E36" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>11</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -14293,14 +14624,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>669</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C37" s="3" t="str">
+      <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ARNOULTEsteban</v>
       </c>
@@ -14310,7 +14641,7 @@
       <c r="E37" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>3</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -14338,14 +14669,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C38" s="3" t="str">
+      <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DE FAUTEREAU-VASSELLuc</v>
       </c>
@@ -14355,7 +14686,7 @@
       <c r="E38" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>8</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -14383,14 +14714,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="3" t="str">
+      <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LE HANNIERDea</v>
       </c>
@@ -14400,7 +14731,7 @@
       <c r="E39" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>7.75</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -14428,14 +14759,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="3" t="str">
+      <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LEGRANDJulien</v>
       </c>
@@ -14445,7 +14776,7 @@
       <c r="E40" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>7.5</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -14473,14 +14804,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>676</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C41" s="3" t="str">
+      <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LESAINGConstance</v>
       </c>
@@ -14490,7 +14821,7 @@
       <c r="E41" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>8</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -14518,14 +14849,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C42" s="3" t="str">
+      <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GUIBERTPierre</v>
       </c>
@@ -14535,7 +14866,7 @@
       <c r="E42" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>12.25</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -14563,14 +14894,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>681</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C43" s="3" t="str">
+      <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ROUGEGREZTom</v>
       </c>
@@ -14580,7 +14911,7 @@
       <c r="E43" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>9.75</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -14608,14 +14939,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>685</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="C44" s="3" t="str">
+      <c r="C44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SCHIEBERHortense</v>
       </c>
@@ -14625,7 +14956,7 @@
       <c r="E44" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>12.25</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -14653,14 +14984,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C45" s="3" t="str">
+      <c r="C45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MARTINGustav</v>
       </c>
@@ -14670,7 +15001,7 @@
       <c r="E45" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>14.75</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -14698,14 +15029,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C46" s="3" t="str">
+      <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BENATTOUMASara</v>
       </c>
@@ -14715,7 +15046,7 @@
       <c r="E46" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>9.5</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -14743,14 +15074,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C47" s="3" t="str">
+      <c r="C47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MOTTEBertrand</v>
       </c>
@@ -14760,7 +15091,7 @@
       <c r="E47" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>9.5</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -14788,14 +15119,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="3" t="str">
+      <c r="C48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DUBOISJuliette</v>
       </c>
@@ -14805,7 +15136,7 @@
       <c r="E48" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>15.5</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -14833,14 +15164,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="3" t="str">
+      <c r="C49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SEPTIERNinon</v>
       </c>
@@ -14850,7 +15181,7 @@
       <c r="E49" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>9.25</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -14878,14 +15209,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>697</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C50" s="3" t="str">
+      <c r="C50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GAY-BOISSIER-DESCOMBESAnoa</v>
       </c>
@@ -14895,7 +15226,7 @@
       <c r="E50" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>8</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -14923,14 +15254,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>435</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C51" s="3" t="str">
+      <c r="C51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LAMESCHCharles-Antoine</v>
       </c>
@@ -14940,7 +15271,7 @@
       <c r="E51" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>4</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -14968,14 +15299,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>702</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C52" s="3" t="str">
+      <c r="C52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DUMINYMarc</v>
       </c>
@@ -14985,7 +15316,7 @@
       <c r="E52" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>14.5</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -15013,14 +15344,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>387</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="3" t="str">
+      <c r="C53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>AUBERTLucie</v>
       </c>
@@ -15030,7 +15361,7 @@
       <c r="E53" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>9</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -15058,14 +15389,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>707</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C54" s="3" t="str">
+      <c r="C54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>HUBERTRonan</v>
       </c>
@@ -15075,7 +15406,7 @@
       <c r="E54" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>5.5</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -15103,14 +15434,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>389</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C55" s="3" t="str">
+      <c r="C55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DEPAQUITAugustin</v>
       </c>
@@ -15120,7 +15451,7 @@
       <c r="E55" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>12.25</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -15148,14 +15479,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C56" s="3" t="str">
+      <c r="C56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>VECTENAuguste</v>
       </c>
@@ -15165,7 +15496,7 @@
       <c r="E56" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <v>7</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -15193,14 +15524,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>713</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C57" s="3" t="str">
+      <c r="C57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DUPRELilou</v>
       </c>
@@ -15210,7 +15541,7 @@
       <c r="E57" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -15238,14 +15569,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>717</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C58" s="3" t="str">
+      <c r="C58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DUDORETJules</v>
       </c>
@@ -15255,7 +15586,7 @@
       <c r="E58" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <v>10.25</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -15283,14 +15614,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>720</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="3" t="str">
+      <c r="C59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BERTHELINAntoine</v>
       </c>
@@ -15300,7 +15631,7 @@
       <c r="E59" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="1">
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -15328,14 +15659,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C60" s="3" t="str">
+      <c r="C60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DELAHAYEBlandine</v>
       </c>
@@ -15345,7 +15676,7 @@
       <c r="E60" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <v>11.5</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -15373,14 +15704,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>564</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="3" t="str">
+      <c r="C61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAYOLVictor</v>
       </c>
@@ -15390,7 +15721,7 @@
       <c r="E61" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="1">
         <v>10</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -15418,14 +15749,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C62" s="3" t="str">
+      <c r="C62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LEROUXPaul</v>
       </c>
@@ -15435,7 +15766,7 @@
       <c r="E62" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -15463,14 +15794,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="3" t="str">
+      <c r="C63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PECOURTBertille</v>
       </c>
@@ -15480,7 +15811,7 @@
       <c r="E63" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>3</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -15508,14 +15839,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C64" s="3" t="str">
+      <c r="C64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DELAGNEAUAbygaelle</v>
       </c>
@@ -15525,7 +15856,7 @@
       <c r="E64" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="1">
         <v>14.5</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -15553,14 +15884,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>728</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C65" s="3" t="str">
+      <c r="C65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PLATEAUCorentin</v>
       </c>
@@ -15570,7 +15901,7 @@
       <c r="E65" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="1">
         <v>4</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -15598,14 +15929,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>731</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="3" t="str">
+      <c r="C66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MORENOAnais</v>
       </c>
@@ -15615,7 +15946,7 @@
       <c r="E66" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <v>14.5</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -15643,14 +15974,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>734</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C67" s="3" t="str">
+      <c r="C67" s="1" t="str">
         <f t="shared" ref="C67:C99" si="1">A67&amp;B67</f>
         <v>BOURDON-MERLINEmmie</v>
       </c>
@@ -15660,7 +15991,7 @@
       <c r="E67" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="1">
         <v>14</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -15688,14 +16019,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>738</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C68" s="3" t="str">
+      <c r="C68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GODEBERTBrice</v>
       </c>
@@ -15705,7 +16036,7 @@
       <c r="E68" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>10.25</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -15733,14 +16064,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>742</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C69" s="3" t="str">
+      <c r="C69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LEVENTEnzo</v>
       </c>
@@ -15750,7 +16081,7 @@
       <c r="E69" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <v>5</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -15778,14 +16109,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>745</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C70" s="3" t="str">
+      <c r="C70" s="1" t="str">
         <f t="shared" si="1"/>
         <v>VINCENTWandrille</v>
       </c>
@@ -15795,7 +16126,7 @@
       <c r="E70" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="1">
         <v>10</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -15823,14 +16154,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>540</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C71" s="3" t="str">
+      <c r="C71" s="1" t="str">
         <f t="shared" si="1"/>
         <v>DEBOUDTAubin</v>
       </c>
@@ -15840,7 +16171,7 @@
       <c r="E71" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="1">
         <v>8</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -15868,14 +16199,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C72" s="3" t="str">
+      <c r="C72" s="1" t="str">
         <f t="shared" si="1"/>
         <v>SAMPERSLucile</v>
       </c>
@@ -15885,7 +16216,7 @@
       <c r="E72" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>0</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -15913,14 +16244,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C73" s="3" t="str">
+      <c r="C73" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MAYOTLenna</v>
       </c>
@@ -15930,7 +16261,7 @@
       <c r="E73" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="1">
         <v>6</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -15958,14 +16289,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>532</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C74" s="3" t="str">
+      <c r="C74" s="1" t="str">
         <f t="shared" si="1"/>
         <v>TARQUISLou-Anne</v>
       </c>
@@ -15975,7 +16306,7 @@
       <c r="E74" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="1">
         <v>7.25</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -16003,14 +16334,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>523</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C75" s="3" t="str">
+      <c r="C75" s="1" t="str">
         <f t="shared" si="1"/>
         <v>TAPPRESTLily</v>
       </c>
@@ -16020,7 +16351,7 @@
       <c r="E75" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="1">
         <v>7</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -16048,14 +16379,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C76" s="3" t="str">
+      <c r="C76" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PICAULTGregoire</v>
       </c>
@@ -16065,7 +16396,7 @@
       <c r="E76" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="1">
         <v>11.5</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -16093,14 +16424,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C77" s="3" t="str">
+      <c r="C77" s="1" t="str">
         <f t="shared" si="1"/>
         <v>VIEIRA-MARTINSThomas</v>
       </c>
@@ -16110,7 +16441,7 @@
       <c r="E77" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="1">
         <v>7.25</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -16138,14 +16469,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>758</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C78" s="3" t="str">
+      <c r="C78" s="1" t="str">
         <f t="shared" si="1"/>
         <v>NEVEUXEleonore</v>
       </c>
@@ -16155,7 +16486,7 @@
       <c r="E78" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="1">
         <v>6</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -16183,14 +16514,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C79" s="3" t="str">
+      <c r="C79" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARANTAlix</v>
       </c>
@@ -16200,7 +16531,7 @@
       <c r="E79" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="1">
         <v>9.75</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -16228,14 +16559,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>763</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="3" t="str">
+      <c r="C80" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LANGLAISAlexis</v>
       </c>
@@ -16245,7 +16576,7 @@
       <c r="E80" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="1">
         <v>5</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -16273,14 +16604,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>766</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C81" s="3" t="str">
+      <c r="C81" s="1" t="str">
         <f t="shared" si="1"/>
         <v>DEFFONTAINESNestor</v>
       </c>
@@ -16290,7 +16621,7 @@
       <c r="E81" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="1">
         <v>4</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -16318,14 +16649,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>770</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C82" s="3" t="str">
+      <c r="C82" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MONETAlizee</v>
       </c>
@@ -16335,7 +16666,7 @@
       <c r="E82" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="1">
         <v>9.25</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -16363,14 +16694,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C83" s="3" t="str">
+      <c r="C83" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MALHERBELilian</v>
       </c>
@@ -16380,7 +16711,7 @@
       <c r="E83" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="1">
         <v>12.5</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -16408,14 +16739,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>775</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C84" s="3" t="str">
+      <c r="C84" s="1" t="str">
         <f t="shared" si="1"/>
         <v>OLIVIERCamille</v>
       </c>
@@ -16425,7 +16756,7 @@
       <c r="E84" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="1">
         <v>4</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -16453,14 +16784,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C85" s="3" t="str">
+      <c r="C85" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GUERLETFlorian</v>
       </c>
@@ -16470,7 +16801,7 @@
       <c r="E85" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="1">
         <v>11.5</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -16498,14 +16829,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>427</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C86" s="3" t="str">
+      <c r="C86" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PILLETBlandine</v>
       </c>
@@ -16515,7 +16846,7 @@
       <c r="E86" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="1">
         <v>15</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -16543,14 +16874,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>780</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C87" s="3" t="str">
+      <c r="C87" s="1" t="str">
         <f t="shared" si="1"/>
         <v>VAN COPPENOLLELaura</v>
       </c>
@@ -16560,7 +16891,7 @@
       <c r="E87" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="1">
         <v>4.5</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -16588,14 +16919,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>783</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="C88" s="3" t="str">
+      <c r="C88" s="1" t="str">
         <f t="shared" si="1"/>
         <v>CHOPINZelie</v>
       </c>
@@ -16605,7 +16936,7 @@
       <c r="E88" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="1">
         <v>9.5</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -16633,14 +16964,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>787</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="C89" s="3" t="str">
+      <c r="C89" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GONONYoan</v>
       </c>
@@ -16650,7 +16981,7 @@
       <c r="E89" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="1">
         <v>15.25</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -16678,14 +17009,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>515</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C90" s="3" t="str">
+      <c r="C90" s="1" t="str">
         <f t="shared" si="1"/>
         <v>DYKMANSVictoire</v>
       </c>
@@ -16695,7 +17026,7 @@
       <c r="E90" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="1">
         <v>15.5</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -16723,14 +17054,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>792</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="3" t="str">
+      <c r="C91" s="1" t="str">
         <f t="shared" si="1"/>
         <v>VANDERMERSCHMaxence</v>
       </c>
@@ -16740,7 +17071,7 @@
       <c r="E91" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="1">
         <v>9.75</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -16768,14 +17099,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C92" s="3" t="str">
+      <c r="C92" s="1" t="str">
         <f t="shared" si="1"/>
         <v>VANBERTENLeo</v>
       </c>
@@ -16785,7 +17116,7 @@
       <c r="E92" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="1">
         <v>9.75</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -16813,14 +17144,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>795</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="C93" s="3" t="str">
+      <c r="C93" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MERCADEREmma</v>
       </c>
@@ -16830,7 +17161,7 @@
       <c r="E93" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="1">
         <v>10.25</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -16858,14 +17189,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>799</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="C94" s="3" t="str">
+      <c r="C94" s="1" t="str">
         <f t="shared" si="1"/>
         <v>THIREEmeline</v>
       </c>
@@ -16875,7 +17206,7 @@
       <c r="E94" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="1">
         <v>10.25</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -16903,14 +17234,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="3" t="str">
+      <c r="C95" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BARDINFelicie</v>
       </c>
@@ -16920,7 +17251,7 @@
       <c r="E95" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="1">
         <v>17</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -16948,14 +17279,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C96" s="3" t="str">
+      <c r="C96" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ROGERTristan</v>
       </c>
@@ -16965,7 +17296,7 @@
       <c r="E96" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="1">
         <v>7.25</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -16993,139 +17324,4262 @@
         <v>587</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C97" s="3" t="str">
+      <c r="C97" s="1" t="str">
         <f t="shared" si="1"/>
         <v>IMBAULTLouis</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="1">
         <v>4</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="G97" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C98" s="3" t="str">
+      <c r="C98" s="1" t="str">
         <f t="shared" si="1"/>
         <v>IDELOTLouise</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="1">
         <v>9.5</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="I98" s="3" t="s">
+      <c r="G98" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="J98" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="K98" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="L98" s="3" t="s">
+      <c r="K98" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="L98" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="M98" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="N98" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="M98" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="C99" s="3" t="str">
+      <c r="C99" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MONCOURTOISRaphael</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="1">
         <v>8</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="M99" s="3" t="s">
+      <c r="G99" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="M99" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="N99" s="3" t="s">
+      <c r="N99" s="1" t="s">
         <v>587</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B28066B-4EAC-4847-90DF-988371D32F9E}">
+  <dimension ref="A1:N63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>ROUZADEApolline</v>
+      </c>
+      <c r="D2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E2" t="s">
+        <v>811</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H2" t="s">
+        <v>586</v>
+      </c>
+      <c r="I2" t="s">
+        <v>594</v>
+      </c>
+      <c r="J2" t="s">
+        <v>594</v>
+      </c>
+      <c r="K2" t="s">
+        <v>598</v>
+      </c>
+      <c r="L2" t="s">
+        <v>587</v>
+      </c>
+      <c r="M2" t="s">
+        <v>587</v>
+      </c>
+      <c r="N2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C63" si="0">A3&amp;B3</f>
+        <v>TAPPRESTLily</v>
+      </c>
+      <c r="D3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E3" t="s">
+        <v>812</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>586</v>
+      </c>
+      <c r="H3" t="s">
+        <v>585</v>
+      </c>
+      <c r="I3" t="s">
+        <v>594</v>
+      </c>
+      <c r="J3" t="s">
+        <v>594</v>
+      </c>
+      <c r="K3" t="s">
+        <v>598</v>
+      </c>
+      <c r="L3" t="s">
+        <v>587</v>
+      </c>
+      <c r="M3" t="s">
+        <v>587</v>
+      </c>
+      <c r="N3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>MOTTEBertrand</v>
+      </c>
+      <c r="D4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" t="s">
+        <v>813</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>586</v>
+      </c>
+      <c r="H4" t="s">
+        <v>586</v>
+      </c>
+      <c r="I4" t="s">
+        <v>594</v>
+      </c>
+      <c r="J4" t="s">
+        <v>594</v>
+      </c>
+      <c r="K4" t="s">
+        <v>598</v>
+      </c>
+      <c r="L4" t="s">
+        <v>585</v>
+      </c>
+      <c r="M4" t="s">
+        <v>587</v>
+      </c>
+      <c r="N4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>LEGRANDJulien</v>
+      </c>
+      <c r="D5" t="s">
+        <v>551</v>
+      </c>
+      <c r="E5" t="s">
+        <v>814</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H5" t="s">
+        <v>586</v>
+      </c>
+      <c r="I5" t="s">
+        <v>594</v>
+      </c>
+      <c r="J5" t="s">
+        <v>594</v>
+      </c>
+      <c r="K5" t="s">
+        <v>598</v>
+      </c>
+      <c r="L5" t="s">
+        <v>587</v>
+      </c>
+      <c r="M5" t="s">
+        <v>585</v>
+      </c>
+      <c r="N5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>MARANTAlix</v>
+      </c>
+      <c r="D6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" t="s">
+        <v>815</v>
+      </c>
+      <c r="F6">
+        <v>15.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>585</v>
+      </c>
+      <c r="H6" t="s">
+        <v>586</v>
+      </c>
+      <c r="I6" t="s">
+        <v>594</v>
+      </c>
+      <c r="J6" t="s">
+        <v>594</v>
+      </c>
+      <c r="K6" t="s">
+        <v>585</v>
+      </c>
+      <c r="L6" t="s">
+        <v>587</v>
+      </c>
+      <c r="M6" t="s">
+        <v>587</v>
+      </c>
+      <c r="N6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>766</v>
+      </c>
+      <c r="B7" t="s">
+        <v>767</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>DEFFONTAINESNestor</v>
+      </c>
+      <c r="D7" t="s">
+        <v>768</v>
+      </c>
+      <c r="E7" t="s">
+        <v>816</v>
+      </c>
+      <c r="F7">
+        <v>15.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>586</v>
+      </c>
+      <c r="H7" t="s">
+        <v>585</v>
+      </c>
+      <c r="I7" t="s">
+        <v>594</v>
+      </c>
+      <c r="J7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K7" t="s">
+        <v>585</v>
+      </c>
+      <c r="L7" t="s">
+        <v>587</v>
+      </c>
+      <c r="M7" t="s">
+        <v>587</v>
+      </c>
+      <c r="N7" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>LE HANNIERDea</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" t="s">
+        <v>817</v>
+      </c>
+      <c r="F8">
+        <v>14.75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>586</v>
+      </c>
+      <c r="H8" t="s">
+        <v>586</v>
+      </c>
+      <c r="I8" t="s">
+        <v>594</v>
+      </c>
+      <c r="J8" t="s">
+        <v>585</v>
+      </c>
+      <c r="K8" t="s">
+        <v>598</v>
+      </c>
+      <c r="L8" t="s">
+        <v>587</v>
+      </c>
+      <c r="M8" t="s">
+        <v>585</v>
+      </c>
+      <c r="N8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>783</v>
+      </c>
+      <c r="B9" t="s">
+        <v>784</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>CHOPINZelie</v>
+      </c>
+      <c r="D9" t="s">
+        <v>785</v>
+      </c>
+      <c r="E9" t="s">
+        <v>818</v>
+      </c>
+      <c r="F9">
+        <v>14.75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>586</v>
+      </c>
+      <c r="H9" t="s">
+        <v>586</v>
+      </c>
+      <c r="I9" t="s">
+        <v>585</v>
+      </c>
+      <c r="J9" t="s">
+        <v>594</v>
+      </c>
+      <c r="K9" t="s">
+        <v>598</v>
+      </c>
+      <c r="L9" t="s">
+        <v>585</v>
+      </c>
+      <c r="M9" t="s">
+        <v>587</v>
+      </c>
+      <c r="N9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>SEPTIERNinon</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>791</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>586</v>
+      </c>
+      <c r="H10" t="s">
+        <v>586</v>
+      </c>
+      <c r="I10" t="s">
+        <v>594</v>
+      </c>
+      <c r="J10" t="s">
+        <v>594</v>
+      </c>
+      <c r="K10" t="s">
+        <v>598</v>
+      </c>
+      <c r="L10" t="s">
+        <v>585</v>
+      </c>
+      <c r="M10" t="s">
+        <v>585</v>
+      </c>
+      <c r="N10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>591</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>GUILBERTAlban</v>
+      </c>
+      <c r="D11" t="s">
+        <v>592</v>
+      </c>
+      <c r="E11" t="s">
+        <v>819</v>
+      </c>
+      <c r="F11">
+        <v>12.5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>586</v>
+      </c>
+      <c r="H11" t="s">
+        <v>585</v>
+      </c>
+      <c r="I11" t="s">
+        <v>594</v>
+      </c>
+      <c r="J11" t="s">
+        <v>594</v>
+      </c>
+      <c r="K11" t="s">
+        <v>585</v>
+      </c>
+      <c r="L11" t="s">
+        <v>587</v>
+      </c>
+      <c r="M11" t="s">
+        <v>585</v>
+      </c>
+      <c r="N11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>TARQUISLou-Anne</v>
+      </c>
+      <c r="D12" t="s">
+        <v>534</v>
+      </c>
+      <c r="E12" t="s">
+        <v>820</v>
+      </c>
+      <c r="F12">
+        <v>12.5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>585</v>
+      </c>
+      <c r="H12" t="s">
+        <v>586</v>
+      </c>
+      <c r="I12" t="s">
+        <v>594</v>
+      </c>
+      <c r="J12" t="s">
+        <v>594</v>
+      </c>
+      <c r="K12" t="s">
+        <v>585</v>
+      </c>
+      <c r="L12" t="s">
+        <v>587</v>
+      </c>
+      <c r="M12" t="s">
+        <v>585</v>
+      </c>
+      <c r="N12" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>AUBERTLucie</v>
+      </c>
+      <c r="D13" t="s">
+        <v>388</v>
+      </c>
+      <c r="E13" t="s">
+        <v>821</v>
+      </c>
+      <c r="F13">
+        <v>12.5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>585</v>
+      </c>
+      <c r="H13" t="s">
+        <v>586</v>
+      </c>
+      <c r="I13" t="s">
+        <v>594</v>
+      </c>
+      <c r="J13" t="s">
+        <v>594</v>
+      </c>
+      <c r="K13" t="s">
+        <v>585</v>
+      </c>
+      <c r="L13" t="s">
+        <v>587</v>
+      </c>
+      <c r="M13" t="s">
+        <v>585</v>
+      </c>
+      <c r="N13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>822</v>
+      </c>
+      <c r="B14" t="s">
+        <v>823</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>PROTINEthan</v>
+      </c>
+      <c r="D14" t="s">
+        <v>824</v>
+      </c>
+      <c r="E14" t="s">
+        <v>798</v>
+      </c>
+      <c r="F14">
+        <v>12.25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>586</v>
+      </c>
+      <c r="H14" t="s">
+        <v>586</v>
+      </c>
+      <c r="I14" t="s">
+        <v>585</v>
+      </c>
+      <c r="J14" t="s">
+        <v>594</v>
+      </c>
+      <c r="K14" t="s">
+        <v>585</v>
+      </c>
+      <c r="L14" t="s">
+        <v>585</v>
+      </c>
+      <c r="M14" t="s">
+        <v>587</v>
+      </c>
+      <c r="N14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>742</v>
+      </c>
+      <c r="B15" t="s">
+        <v>582</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>LEVENTEnzo</v>
+      </c>
+      <c r="D15" t="s">
+        <v>743</v>
+      </c>
+      <c r="E15" t="s">
+        <v>825</v>
+      </c>
+      <c r="F15">
+        <v>12.25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>586</v>
+      </c>
+      <c r="H15" t="s">
+        <v>586</v>
+      </c>
+      <c r="I15" t="s">
+        <v>594</v>
+      </c>
+      <c r="J15" t="s">
+        <v>585</v>
+      </c>
+      <c r="K15" t="s">
+        <v>585</v>
+      </c>
+      <c r="L15" t="s">
+        <v>587</v>
+      </c>
+      <c r="M15" t="s">
+        <v>585</v>
+      </c>
+      <c r="N15" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>826</v>
+      </c>
+      <c r="B16" t="s">
+        <v>827</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>ALLARTAbigaelle</v>
+      </c>
+      <c r="D16" t="s">
+        <v>828</v>
+      </c>
+      <c r="E16" t="s">
+        <v>829</v>
+      </c>
+      <c r="F16">
+        <v>11.75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>586</v>
+      </c>
+      <c r="H16" t="s">
+        <v>586</v>
+      </c>
+      <c r="I16" t="s">
+        <v>585</v>
+      </c>
+      <c r="J16" t="s">
+        <v>594</v>
+      </c>
+      <c r="K16" t="s">
+        <v>598</v>
+      </c>
+      <c r="L16" t="s">
+        <v>585</v>
+      </c>
+      <c r="M16" t="s">
+        <v>585</v>
+      </c>
+      <c r="N16" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B17" t="s">
+        <v>682</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>ROUGEGREZTom</v>
+      </c>
+      <c r="D17" t="s">
+        <v>683</v>
+      </c>
+      <c r="E17" t="s">
+        <v>830</v>
+      </c>
+      <c r="F17">
+        <v>11.75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>586</v>
+      </c>
+      <c r="H17" t="s">
+        <v>586</v>
+      </c>
+      <c r="I17" t="s">
+        <v>594</v>
+      </c>
+      <c r="J17" t="s">
+        <v>585</v>
+      </c>
+      <c r="K17" t="s">
+        <v>598</v>
+      </c>
+      <c r="L17" t="s">
+        <v>585</v>
+      </c>
+      <c r="M17" t="s">
+        <v>585</v>
+      </c>
+      <c r="N17" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>780</v>
+      </c>
+      <c r="B18" t="s">
+        <v>781</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>VAN COPPENOLLELaura</v>
+      </c>
+      <c r="D18" t="s">
+        <v>782</v>
+      </c>
+      <c r="E18" t="s">
+        <v>831</v>
+      </c>
+      <c r="F18">
+        <v>11.5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>586</v>
+      </c>
+      <c r="H18" t="s">
+        <v>586</v>
+      </c>
+      <c r="I18" t="s">
+        <v>594</v>
+      </c>
+      <c r="J18" t="s">
+        <v>594</v>
+      </c>
+      <c r="K18" t="s">
+        <v>585</v>
+      </c>
+      <c r="L18" t="s">
+        <v>585</v>
+      </c>
+      <c r="M18" t="s">
+        <v>585</v>
+      </c>
+      <c r="N18" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>832</v>
+      </c>
+      <c r="B19" t="s">
+        <v>833</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>DESPRESMaylis</v>
+      </c>
+      <c r="D19" t="s">
+        <v>834</v>
+      </c>
+      <c r="E19" t="s">
+        <v>835</v>
+      </c>
+      <c r="F19">
+        <v>11.5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>586</v>
+      </c>
+      <c r="H19" t="s">
+        <v>586</v>
+      </c>
+      <c r="I19" t="s">
+        <v>594</v>
+      </c>
+      <c r="J19" t="s">
+        <v>594</v>
+      </c>
+      <c r="K19" t="s">
+        <v>585</v>
+      </c>
+      <c r="L19" t="s">
+        <v>585</v>
+      </c>
+      <c r="M19" t="s">
+        <v>585</v>
+      </c>
+      <c r="N19" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>VIEIRA-MARTINSThomas</v>
+      </c>
+      <c r="D20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" t="s">
+        <v>836</v>
+      </c>
+      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>585</v>
+      </c>
+      <c r="H20" t="s">
+        <v>586</v>
+      </c>
+      <c r="I20" t="s">
+        <v>585</v>
+      </c>
+      <c r="J20" t="s">
+        <v>585</v>
+      </c>
+      <c r="K20" t="s">
+        <v>585</v>
+      </c>
+      <c r="L20" t="s">
+        <v>587</v>
+      </c>
+      <c r="M20" t="s">
+        <v>587</v>
+      </c>
+      <c r="N20" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" t="s">
+        <v>365</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>BENATTOUMASara</v>
+      </c>
+      <c r="D21" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" t="s">
+        <v>837</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>586</v>
+      </c>
+      <c r="H21" t="s">
+        <v>586</v>
+      </c>
+      <c r="I21" t="s">
+        <v>585</v>
+      </c>
+      <c r="J21" t="s">
+        <v>585</v>
+      </c>
+      <c r="K21" t="s">
+        <v>585</v>
+      </c>
+      <c r="L21" t="s">
+        <v>587</v>
+      </c>
+      <c r="M21" t="s">
+        <v>585</v>
+      </c>
+      <c r="N21" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>648</v>
+      </c>
+      <c r="B22" t="s">
+        <v>649</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>TROYJosephine</v>
+      </c>
+      <c r="D22" t="s">
+        <v>650</v>
+      </c>
+      <c r="E22" t="s">
+        <v>838</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>586</v>
+      </c>
+      <c r="H22" t="s">
+        <v>586</v>
+      </c>
+      <c r="I22" t="s">
+        <v>585</v>
+      </c>
+      <c r="J22" t="s">
+        <v>585</v>
+      </c>
+      <c r="K22" t="s">
+        <v>585</v>
+      </c>
+      <c r="L22" t="s">
+        <v>585</v>
+      </c>
+      <c r="M22" t="s">
+        <v>587</v>
+      </c>
+      <c r="N22" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>LECATThomas</v>
+      </c>
+      <c r="D23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23" t="s">
+        <v>839</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>586</v>
+      </c>
+      <c r="H23" t="s">
+        <v>586</v>
+      </c>
+      <c r="I23" t="s">
+        <v>585</v>
+      </c>
+      <c r="J23" t="s">
+        <v>585</v>
+      </c>
+      <c r="K23" t="s">
+        <v>585</v>
+      </c>
+      <c r="L23" t="s">
+        <v>585</v>
+      </c>
+      <c r="M23" t="s">
+        <v>587</v>
+      </c>
+      <c r="N23" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>676</v>
+      </c>
+      <c r="B24" t="s">
+        <v>677</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>LESAINGConstance</v>
+      </c>
+      <c r="D24" t="s">
+        <v>678</v>
+      </c>
+      <c r="E24" t="s">
+        <v>840</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>586</v>
+      </c>
+      <c r="H24" t="s">
+        <v>586</v>
+      </c>
+      <c r="I24" t="s">
+        <v>585</v>
+      </c>
+      <c r="J24" t="s">
+        <v>585</v>
+      </c>
+      <c r="K24" t="s">
+        <v>585</v>
+      </c>
+      <c r="L24" t="s">
+        <v>585</v>
+      </c>
+      <c r="M24" t="s">
+        <v>587</v>
+      </c>
+      <c r="N24" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>PETITPaul</v>
+      </c>
+      <c r="D25" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" t="s">
+        <v>841</v>
+      </c>
+      <c r="F25">
+        <v>9.75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>586</v>
+      </c>
+      <c r="H25" t="s">
+        <v>585</v>
+      </c>
+      <c r="I25" t="s">
+        <v>585</v>
+      </c>
+      <c r="J25" t="s">
+        <v>594</v>
+      </c>
+      <c r="K25" t="s">
+        <v>598</v>
+      </c>
+      <c r="L25" t="s">
+        <v>585</v>
+      </c>
+      <c r="M25" t="s">
+        <v>585</v>
+      </c>
+      <c r="N25" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMPERSLucile</v>
+      </c>
+      <c r="D26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E26" t="s">
+        <v>675</v>
+      </c>
+      <c r="F26">
+        <v>9.5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>586</v>
+      </c>
+      <c r="H26" t="s">
+        <v>585</v>
+      </c>
+      <c r="I26" t="s">
+        <v>594</v>
+      </c>
+      <c r="J26" t="s">
+        <v>594</v>
+      </c>
+      <c r="K26" t="s">
+        <v>585</v>
+      </c>
+      <c r="L26" t="s">
+        <v>585</v>
+      </c>
+      <c r="M26" t="s">
+        <v>585</v>
+      </c>
+      <c r="N26" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>842</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>KIHLJeanne</v>
+      </c>
+      <c r="D27" t="s">
+        <v>843</v>
+      </c>
+      <c r="E27" t="s">
+        <v>844</v>
+      </c>
+      <c r="F27">
+        <v>9.25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>586</v>
+      </c>
+      <c r="H27" t="s">
+        <v>586</v>
+      </c>
+      <c r="I27" t="s">
+        <v>585</v>
+      </c>
+      <c r="J27" t="s">
+        <v>594</v>
+      </c>
+      <c r="K27" t="s">
+        <v>585</v>
+      </c>
+      <c r="L27" t="s">
+        <v>585</v>
+      </c>
+      <c r="M27" t="s">
+        <v>585</v>
+      </c>
+      <c r="N27" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>845</v>
+      </c>
+      <c r="B28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>GROBELNYPierre</v>
+      </c>
+      <c r="D28" t="s">
+        <v>846</v>
+      </c>
+      <c r="E28" t="s">
+        <v>847</v>
+      </c>
+      <c r="F28">
+        <v>9.25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>586</v>
+      </c>
+      <c r="H28" t="s">
+        <v>586</v>
+      </c>
+      <c r="I28" t="s">
+        <v>585</v>
+      </c>
+      <c r="J28" t="s">
+        <v>594</v>
+      </c>
+      <c r="K28" t="s">
+        <v>585</v>
+      </c>
+      <c r="L28" t="s">
+        <v>585</v>
+      </c>
+      <c r="M28" t="s">
+        <v>585</v>
+      </c>
+      <c r="N28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>770</v>
+      </c>
+      <c r="B29" t="s">
+        <v>771</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>MONETAlizee</v>
+      </c>
+      <c r="D29" t="s">
+        <v>772</v>
+      </c>
+      <c r="E29" t="s">
+        <v>848</v>
+      </c>
+      <c r="F29">
+        <v>9.25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>586</v>
+      </c>
+      <c r="H29" t="s">
+        <v>586</v>
+      </c>
+      <c r="I29" t="s">
+        <v>594</v>
+      </c>
+      <c r="J29" t="s">
+        <v>585</v>
+      </c>
+      <c r="K29" t="s">
+        <v>585</v>
+      </c>
+      <c r="L29" t="s">
+        <v>585</v>
+      </c>
+      <c r="M29" t="s">
+        <v>585</v>
+      </c>
+      <c r="N29" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>581</v>
+      </c>
+      <c r="B30" t="s">
+        <v>582</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>BOEHLEREnzo</v>
+      </c>
+      <c r="D30" t="s">
+        <v>583</v>
+      </c>
+      <c r="E30" t="s">
+        <v>849</v>
+      </c>
+      <c r="F30">
+        <v>9.25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>586</v>
+      </c>
+      <c r="H30" t="s">
+        <v>586</v>
+      </c>
+      <c r="I30" t="s">
+        <v>594</v>
+      </c>
+      <c r="J30" t="s">
+        <v>585</v>
+      </c>
+      <c r="K30" t="s">
+        <v>585</v>
+      </c>
+      <c r="L30" t="s">
+        <v>585</v>
+      </c>
+      <c r="M30" t="s">
+        <v>585</v>
+      </c>
+      <c r="N30" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>627</v>
+      </c>
+      <c r="B31" t="s">
+        <v>628</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>PELARDBerenice</v>
+      </c>
+      <c r="D31" t="s">
+        <v>629</v>
+      </c>
+      <c r="E31" t="s">
+        <v>850</v>
+      </c>
+      <c r="F31">
+        <v>9.25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>586</v>
+      </c>
+      <c r="H31" t="s">
+        <v>586</v>
+      </c>
+      <c r="I31" t="s">
+        <v>585</v>
+      </c>
+      <c r="J31" t="s">
+        <v>594</v>
+      </c>
+      <c r="K31" t="s">
+        <v>585</v>
+      </c>
+      <c r="L31" t="s">
+        <v>587</v>
+      </c>
+      <c r="M31" t="s">
+        <v>585</v>
+      </c>
+      <c r="N31" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>775</v>
+      </c>
+      <c r="B32" t="s">
+        <v>609</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>OLIVIERCamille</v>
+      </c>
+      <c r="D32" t="s">
+        <v>776</v>
+      </c>
+      <c r="E32" t="s">
+        <v>851</v>
+      </c>
+      <c r="F32">
+        <v>8.75</v>
+      </c>
+      <c r="G32" t="s">
+        <v>586</v>
+      </c>
+      <c r="H32" t="s">
+        <v>586</v>
+      </c>
+      <c r="I32" t="s">
+        <v>594</v>
+      </c>
+      <c r="J32" t="s">
+        <v>585</v>
+      </c>
+      <c r="K32" t="s">
+        <v>598</v>
+      </c>
+      <c r="L32" t="s">
+        <v>585</v>
+      </c>
+      <c r="M32" t="s">
+        <v>585</v>
+      </c>
+      <c r="N32" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>493</v>
+      </c>
+      <c r="B33" t="s">
+        <v>494</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>ROGERTristan</v>
+      </c>
+      <c r="D33" t="s">
+        <v>495</v>
+      </c>
+      <c r="E33" t="s">
+        <v>852</v>
+      </c>
+      <c r="F33">
+        <v>8.5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>585</v>
+      </c>
+      <c r="H33" t="s">
+        <v>585</v>
+      </c>
+      <c r="I33" t="s">
+        <v>585</v>
+      </c>
+      <c r="J33" t="s">
+        <v>585</v>
+      </c>
+      <c r="K33" t="s">
+        <v>598</v>
+      </c>
+      <c r="L33" t="s">
+        <v>585</v>
+      </c>
+      <c r="M33" t="s">
+        <v>587</v>
+      </c>
+      <c r="N33" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>491</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>PECOURTBertille</v>
+      </c>
+      <c r="D34" t="s">
+        <v>492</v>
+      </c>
+      <c r="E34" t="s">
+        <v>853</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>585</v>
+      </c>
+      <c r="H34" t="s">
+        <v>586</v>
+      </c>
+      <c r="I34" t="s">
+        <v>585</v>
+      </c>
+      <c r="J34" t="s">
+        <v>585</v>
+      </c>
+      <c r="K34" t="s">
+        <v>585</v>
+      </c>
+      <c r="L34" t="s">
+        <v>585</v>
+      </c>
+      <c r="M34" t="s">
+        <v>587</v>
+      </c>
+      <c r="N34" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>432</v>
+      </c>
+      <c r="B35" t="s">
+        <v>433</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>MAYOTLenna</v>
+      </c>
+      <c r="D35" t="s">
+        <v>434</v>
+      </c>
+      <c r="E35" t="s">
+        <v>672</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>586</v>
+      </c>
+      <c r="H35" t="s">
+        <v>585</v>
+      </c>
+      <c r="I35" t="s">
+        <v>585</v>
+      </c>
+      <c r="J35" t="s">
+        <v>585</v>
+      </c>
+      <c r="K35" t="s">
+        <v>585</v>
+      </c>
+      <c r="L35" t="s">
+        <v>585</v>
+      </c>
+      <c r="M35" t="s">
+        <v>587</v>
+      </c>
+      <c r="N35" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>854</v>
+      </c>
+      <c r="B36" t="s">
+        <v>855</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>SENEZCeleste</v>
+      </c>
+      <c r="D36" t="s">
+        <v>856</v>
+      </c>
+      <c r="E36" t="s">
+        <v>857</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>585</v>
+      </c>
+      <c r="H36" t="s">
+        <v>586</v>
+      </c>
+      <c r="I36" t="s">
+        <v>585</v>
+      </c>
+      <c r="J36" t="s">
+        <v>585</v>
+      </c>
+      <c r="K36" t="s">
+        <v>585</v>
+      </c>
+      <c r="L36" t="s">
+        <v>585</v>
+      </c>
+      <c r="M36" t="s">
+        <v>587</v>
+      </c>
+      <c r="N36" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>634</v>
+      </c>
+      <c r="B37" t="s">
+        <v>635</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>GONARDJohan</v>
+      </c>
+      <c r="D37" t="s">
+        <v>636</v>
+      </c>
+      <c r="E37" t="s">
+        <v>858</v>
+      </c>
+      <c r="F37">
+        <v>7.5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>586</v>
+      </c>
+      <c r="H37" t="s">
+        <v>585</v>
+      </c>
+      <c r="I37" t="s">
+        <v>585</v>
+      </c>
+      <c r="J37" t="s">
+        <v>585</v>
+      </c>
+      <c r="K37" t="s">
+        <v>598</v>
+      </c>
+      <c r="L37" t="s">
+        <v>585</v>
+      </c>
+      <c r="M37" t="s">
+        <v>587</v>
+      </c>
+      <c r="N37" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>GENTIENFlavie</v>
+      </c>
+      <c r="D38" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" t="s">
+        <v>859</v>
+      </c>
+      <c r="F38">
+        <v>7.25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>586</v>
+      </c>
+      <c r="H38" t="s">
+        <v>585</v>
+      </c>
+      <c r="I38" t="s">
+        <v>198</v>
+      </c>
+      <c r="J38" t="s">
+        <v>594</v>
+      </c>
+      <c r="K38" t="s">
+        <v>585</v>
+      </c>
+      <c r="L38" t="s">
+        <v>198</v>
+      </c>
+      <c r="M38" t="s">
+        <v>587</v>
+      </c>
+      <c r="N38" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>326</v>
+      </c>
+      <c r="B39" t="s">
+        <v>327</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>HARIR-FOROUCHAugustin</v>
+      </c>
+      <c r="D39" t="s">
+        <v>328</v>
+      </c>
+      <c r="E39" t="s">
+        <v>860</v>
+      </c>
+      <c r="F39">
+        <v>7.25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>586</v>
+      </c>
+      <c r="H39" t="s">
+        <v>585</v>
+      </c>
+      <c r="I39" t="s">
+        <v>594</v>
+      </c>
+      <c r="J39" t="s">
+        <v>585</v>
+      </c>
+      <c r="K39" t="s">
+        <v>585</v>
+      </c>
+      <c r="L39" t="s">
+        <v>585</v>
+      </c>
+      <c r="M39" t="s">
+        <v>585</v>
+      </c>
+      <c r="N39" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>479</v>
+      </c>
+      <c r="B40" t="s">
+        <v>480</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMAINDiane</v>
+      </c>
+      <c r="D40" t="s">
+        <v>481</v>
+      </c>
+      <c r="E40" t="s">
+        <v>861</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>586</v>
+      </c>
+      <c r="H40" t="s">
+        <v>586</v>
+      </c>
+      <c r="I40" t="s">
+        <v>585</v>
+      </c>
+      <c r="J40" t="s">
+        <v>585</v>
+      </c>
+      <c r="K40" t="s">
+        <v>585</v>
+      </c>
+      <c r="L40" t="s">
+        <v>585</v>
+      </c>
+      <c r="M40" t="s">
+        <v>587</v>
+      </c>
+      <c r="N40" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>576</v>
+      </c>
+      <c r="B41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>BERTEAUThomas</v>
+      </c>
+      <c r="D41" t="s">
+        <v>577</v>
+      </c>
+      <c r="E41" t="s">
+        <v>862</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>586</v>
+      </c>
+      <c r="H41" t="s">
+        <v>586</v>
+      </c>
+      <c r="I41" t="s">
+        <v>585</v>
+      </c>
+      <c r="J41" t="s">
+        <v>585</v>
+      </c>
+      <c r="K41" t="s">
+        <v>585</v>
+      </c>
+      <c r="L41" t="s">
+        <v>585</v>
+      </c>
+      <c r="M41" t="s">
+        <v>585</v>
+      </c>
+      <c r="N41" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>863</v>
+      </c>
+      <c r="B42" t="s">
+        <v>864</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>SANSOITClement</v>
+      </c>
+      <c r="D42" t="s">
+        <v>865</v>
+      </c>
+      <c r="E42" t="s">
+        <v>866</v>
+      </c>
+      <c r="F42">
+        <v>6.75</v>
+      </c>
+      <c r="G42" t="s">
+        <v>585</v>
+      </c>
+      <c r="H42" t="s">
+        <v>586</v>
+      </c>
+      <c r="I42" t="s">
+        <v>594</v>
+      </c>
+      <c r="J42" t="s">
+        <v>585</v>
+      </c>
+      <c r="K42" t="s">
+        <v>598</v>
+      </c>
+      <c r="L42" t="s">
+        <v>585</v>
+      </c>
+      <c r="M42" t="s">
+        <v>585</v>
+      </c>
+      <c r="N42" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>639</v>
+      </c>
+      <c r="B43" t="s">
+        <v>609</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>RIVIERRECamille</v>
+      </c>
+      <c r="D43" t="s">
+        <v>640</v>
+      </c>
+      <c r="E43" t="s">
+        <v>867</v>
+      </c>
+      <c r="F43">
+        <v>6.5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>586</v>
+      </c>
+      <c r="H43" t="s">
+        <v>586</v>
+      </c>
+      <c r="I43" t="s">
+        <v>585</v>
+      </c>
+      <c r="J43" t="s">
+        <v>585</v>
+      </c>
+      <c r="K43" t="s">
+        <v>598</v>
+      </c>
+      <c r="L43" t="s">
+        <v>585</v>
+      </c>
+      <c r="M43" t="s">
+        <v>585</v>
+      </c>
+      <c r="N43" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>512</v>
+      </c>
+      <c r="B44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>VECTENAuguste</v>
+      </c>
+      <c r="D44" t="s">
+        <v>514</v>
+      </c>
+      <c r="E44" t="s">
+        <v>868</v>
+      </c>
+      <c r="F44">
+        <v>6.5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>586</v>
+      </c>
+      <c r="H44" t="s">
+        <v>586</v>
+      </c>
+      <c r="I44" t="s">
+        <v>585</v>
+      </c>
+      <c r="J44" t="s">
+        <v>585</v>
+      </c>
+      <c r="K44" t="s">
+        <v>598</v>
+      </c>
+      <c r="L44" t="s">
+        <v>585</v>
+      </c>
+      <c r="M44" t="s">
+        <v>585</v>
+      </c>
+      <c r="N44" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>869</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>HARDYLouis</v>
+      </c>
+      <c r="D45" t="s">
+        <v>870</v>
+      </c>
+      <c r="E45" t="s">
+        <v>871</v>
+      </c>
+      <c r="F45">
+        <v>6.5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>586</v>
+      </c>
+      <c r="H45" t="s">
+        <v>586</v>
+      </c>
+      <c r="I45" t="s">
+        <v>585</v>
+      </c>
+      <c r="J45" t="s">
+        <v>585</v>
+      </c>
+      <c r="K45" t="s">
+        <v>598</v>
+      </c>
+      <c r="L45" t="s">
+        <v>585</v>
+      </c>
+      <c r="M45" t="s">
+        <v>585</v>
+      </c>
+      <c r="N45" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>872</v>
+      </c>
+      <c r="B46" t="s">
+        <v>873</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>GANGNITOCassandre</v>
+      </c>
+      <c r="D46" t="s">
+        <v>874</v>
+      </c>
+      <c r="E46" t="s">
+        <v>875</v>
+      </c>
+      <c r="F46">
+        <v>6.25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>586</v>
+      </c>
+      <c r="H46" t="s">
+        <v>586</v>
+      </c>
+      <c r="I46" t="s">
+        <v>594</v>
+      </c>
+      <c r="J46" t="s">
+        <v>585</v>
+      </c>
+      <c r="K46" t="s">
+        <v>585</v>
+      </c>
+      <c r="L46" t="s">
+        <v>198</v>
+      </c>
+      <c r="M46" t="s">
+        <v>585</v>
+      </c>
+      <c r="N46" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>588</v>
+      </c>
+      <c r="B47" t="s">
+        <v>473</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>CARETTEHugo</v>
+      </c>
+      <c r="D47" t="s">
+        <v>589</v>
+      </c>
+      <c r="E47" t="s">
+        <v>876</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>585</v>
+      </c>
+      <c r="H47" t="s">
+        <v>585</v>
+      </c>
+      <c r="I47" t="s">
+        <v>585</v>
+      </c>
+      <c r="J47" t="s">
+        <v>585</v>
+      </c>
+      <c r="K47" t="s">
+        <v>585</v>
+      </c>
+      <c r="L47" t="s">
+        <v>585</v>
+      </c>
+      <c r="M47" t="s">
+        <v>587</v>
+      </c>
+      <c r="N47" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>877</v>
+      </c>
+      <c r="B48" t="s">
+        <v>878</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>CATHEAUAgathe</v>
+      </c>
+      <c r="D48" t="s">
+        <v>879</v>
+      </c>
+      <c r="E48" t="s">
+        <v>880</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>585</v>
+      </c>
+      <c r="H48" t="s">
+        <v>585</v>
+      </c>
+      <c r="I48" t="s">
+        <v>585</v>
+      </c>
+      <c r="J48" t="s">
+        <v>585</v>
+      </c>
+      <c r="K48" t="s">
+        <v>585</v>
+      </c>
+      <c r="L48" t="s">
+        <v>585</v>
+      </c>
+      <c r="M48" t="s">
+        <v>587</v>
+      </c>
+      <c r="N48" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>758</v>
+      </c>
+      <c r="B49" t="s">
+        <v>759</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>NEVEUXEleonore</v>
+      </c>
+      <c r="D49" t="s">
+        <v>760</v>
+      </c>
+      <c r="E49" t="s">
+        <v>881</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>585</v>
+      </c>
+      <c r="H49" t="s">
+        <v>585</v>
+      </c>
+      <c r="I49" t="s">
+        <v>585</v>
+      </c>
+      <c r="J49" t="s">
+        <v>585</v>
+      </c>
+      <c r="K49" t="s">
+        <v>585</v>
+      </c>
+      <c r="L49" t="s">
+        <v>587</v>
+      </c>
+      <c r="M49" t="s">
+        <v>585</v>
+      </c>
+      <c r="N49" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>340</v>
+      </c>
+      <c r="B50" t="s">
+        <v>302</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>LEROUXPaul</v>
+      </c>
+      <c r="D50" t="s">
+        <v>341</v>
+      </c>
+      <c r="E50" t="s">
+        <v>866</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>585</v>
+      </c>
+      <c r="H50" t="s">
+        <v>586</v>
+      </c>
+      <c r="I50" t="s">
+        <v>585</v>
+      </c>
+      <c r="J50" t="s">
+        <v>198</v>
+      </c>
+      <c r="K50" t="s">
+        <v>585</v>
+      </c>
+      <c r="L50" t="s">
+        <v>585</v>
+      </c>
+      <c r="M50" t="s">
+        <v>585</v>
+      </c>
+      <c r="N50" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>540</v>
+      </c>
+      <c r="B51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>DEBOUDTAubin</v>
+      </c>
+      <c r="D51" t="s">
+        <v>750</v>
+      </c>
+      <c r="E51" t="s">
+        <v>803</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>586</v>
+      </c>
+      <c r="H51" t="s">
+        <v>585</v>
+      </c>
+      <c r="I51" t="s">
+        <v>585</v>
+      </c>
+      <c r="J51" t="s">
+        <v>585</v>
+      </c>
+      <c r="K51" t="s">
+        <v>585</v>
+      </c>
+      <c r="L51" t="s">
+        <v>585</v>
+      </c>
+      <c r="M51" t="s">
+        <v>585</v>
+      </c>
+      <c r="N51" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>548</v>
+      </c>
+      <c r="B52" t="s">
+        <v>473</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>BOUTILLIERHugo</v>
+      </c>
+      <c r="D52" t="s">
+        <v>549</v>
+      </c>
+      <c r="E52" t="s">
+        <v>882</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>586</v>
+      </c>
+      <c r="H52" t="s">
+        <v>585</v>
+      </c>
+      <c r="I52" t="s">
+        <v>585</v>
+      </c>
+      <c r="J52" t="s">
+        <v>585</v>
+      </c>
+      <c r="K52" t="s">
+        <v>585</v>
+      </c>
+      <c r="L52" t="s">
+        <v>585</v>
+      </c>
+      <c r="M52" t="s">
+        <v>585</v>
+      </c>
+      <c r="N52" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>728</v>
+      </c>
+      <c r="B53" t="s">
+        <v>558</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>PLATEAUCorentin</v>
+      </c>
+      <c r="D53" t="s">
+        <v>729</v>
+      </c>
+      <c r="E53" t="s">
+        <v>883</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>585</v>
+      </c>
+      <c r="H53" t="s">
+        <v>586</v>
+      </c>
+      <c r="I53" t="s">
+        <v>585</v>
+      </c>
+      <c r="J53" t="s">
+        <v>585</v>
+      </c>
+      <c r="K53" t="s">
+        <v>585</v>
+      </c>
+      <c r="L53" t="s">
+        <v>585</v>
+      </c>
+      <c r="M53" t="s">
+        <v>585</v>
+      </c>
+      <c r="N53" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>763</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>LANGLAISAlexis</v>
+      </c>
+      <c r="D54" t="s">
+        <v>764</v>
+      </c>
+      <c r="E54" t="s">
+        <v>884</v>
+      </c>
+      <c r="F54">
+        <v>4.25</v>
+      </c>
+      <c r="G54" t="s">
+        <v>585</v>
+      </c>
+      <c r="H54" t="s">
+        <v>586</v>
+      </c>
+      <c r="I54" t="s">
+        <v>594</v>
+      </c>
+      <c r="J54" t="s">
+        <v>585</v>
+      </c>
+      <c r="K54" t="s">
+        <v>585</v>
+      </c>
+      <c r="L54" t="s">
+        <v>585</v>
+      </c>
+      <c r="M54" t="s">
+        <v>585</v>
+      </c>
+      <c r="N54" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>435</v>
+      </c>
+      <c r="B55" t="s">
+        <v>436</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>LAMESCHCharles-Antoine</v>
+      </c>
+      <c r="D55" t="s">
+        <v>437</v>
+      </c>
+      <c r="E55" t="s">
+        <v>885</v>
+      </c>
+      <c r="F55">
+        <v>4.25</v>
+      </c>
+      <c r="G55" t="s">
+        <v>585</v>
+      </c>
+      <c r="H55" t="s">
+        <v>586</v>
+      </c>
+      <c r="I55" t="s">
+        <v>594</v>
+      </c>
+      <c r="J55" t="s">
+        <v>585</v>
+      </c>
+      <c r="K55" t="s">
+        <v>585</v>
+      </c>
+      <c r="L55" t="s">
+        <v>585</v>
+      </c>
+      <c r="M55" t="s">
+        <v>585</v>
+      </c>
+      <c r="N55" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>644</v>
+      </c>
+      <c r="B56" t="s">
+        <v>645</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>GUITTARDClementine</v>
+      </c>
+      <c r="D56" t="s">
+        <v>646</v>
+      </c>
+      <c r="E56" t="s">
+        <v>886</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>585</v>
+      </c>
+      <c r="H56" t="s">
+        <v>585</v>
+      </c>
+      <c r="I56" t="s">
+        <v>585</v>
+      </c>
+      <c r="J56" t="s">
+        <v>585</v>
+      </c>
+      <c r="K56" t="s">
+        <v>585</v>
+      </c>
+      <c r="L56" t="s">
+        <v>585</v>
+      </c>
+      <c r="M56" t="s">
+        <v>587</v>
+      </c>
+      <c r="N56" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>618</v>
+      </c>
+      <c r="B57" t="s">
+        <v>619</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>VINCANTManon</v>
+      </c>
+      <c r="D57" t="s">
+        <v>620</v>
+      </c>
+      <c r="E57" t="s">
+        <v>887</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>585</v>
+      </c>
+      <c r="H57" t="s">
+        <v>586</v>
+      </c>
+      <c r="I57" t="s">
+        <v>585</v>
+      </c>
+      <c r="J57" t="s">
+        <v>585</v>
+      </c>
+      <c r="K57" t="s">
+        <v>585</v>
+      </c>
+      <c r="L57" t="s">
+        <v>585</v>
+      </c>
+      <c r="M57" t="s">
+        <v>585</v>
+      </c>
+      <c r="N57" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>631</v>
+      </c>
+      <c r="B58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>RAVELOJAONAArthur</v>
+      </c>
+      <c r="D58" t="s">
+        <v>632</v>
+      </c>
+      <c r="E58" t="s">
+        <v>798</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>585</v>
+      </c>
+      <c r="H58" t="s">
+        <v>585</v>
+      </c>
+      <c r="I58" t="s">
+        <v>585</v>
+      </c>
+      <c r="J58" t="s">
+        <v>585</v>
+      </c>
+      <c r="K58" t="s">
+        <v>585</v>
+      </c>
+      <c r="L58" t="s">
+        <v>585</v>
+      </c>
+      <c r="M58" t="s">
+        <v>585</v>
+      </c>
+      <c r="N58" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>745</v>
+      </c>
+      <c r="B59" t="s">
+        <v>746</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>VINCENTWandrille</v>
+      </c>
+      <c r="D59" t="s">
+        <v>747</v>
+      </c>
+      <c r="E59" t="s">
+        <v>888</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>198</v>
+      </c>
+      <c r="H59" t="s">
+        <v>198</v>
+      </c>
+      <c r="I59" t="s">
+        <v>198</v>
+      </c>
+      <c r="J59" t="s">
+        <v>198</v>
+      </c>
+      <c r="K59" t="s">
+        <v>198</v>
+      </c>
+      <c r="L59" t="s">
+        <v>198</v>
+      </c>
+      <c r="M59" t="s">
+        <v>198</v>
+      </c>
+      <c r="N59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>350</v>
+      </c>
+      <c r="B60" t="s">
+        <v>351</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>HOQUETJustine</v>
+      </c>
+      <c r="D60" t="s">
+        <v>352</v>
+      </c>
+      <c r="E60" t="s">
+        <v>889</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>198</v>
+      </c>
+      <c r="H60" t="s">
+        <v>198</v>
+      </c>
+      <c r="I60" t="s">
+        <v>198</v>
+      </c>
+      <c r="J60" t="s">
+        <v>198</v>
+      </c>
+      <c r="K60" t="s">
+        <v>198</v>
+      </c>
+      <c r="L60" t="s">
+        <v>198</v>
+      </c>
+      <c r="M60" t="s">
+        <v>198</v>
+      </c>
+      <c r="N60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>273</v>
+      </c>
+      <c r="B61" t="s">
+        <v>274</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>IDELOTLouise</v>
+      </c>
+      <c r="D61" t="s">
+        <v>275</v>
+      </c>
+      <c r="E61" t="s">
+        <v>890</v>
+      </c>
+      <c r="F61">
+        <v>14.5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>586</v>
+      </c>
+      <c r="H61" t="s">
+        <v>586</v>
+      </c>
+      <c r="I61" t="s">
+        <v>594</v>
+      </c>
+      <c r="J61" t="s">
+        <v>594</v>
+      </c>
+      <c r="K61" t="s">
+        <v>585</v>
+      </c>
+      <c r="L61" t="s">
+        <v>587</v>
+      </c>
+      <c r="M61" t="s">
+        <v>585</v>
+      </c>
+      <c r="N61" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>278</v>
+      </c>
+      <c r="B62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>IMBAULTLouis</v>
+      </c>
+      <c r="D62" t="s">
+        <v>279</v>
+      </c>
+      <c r="E62" t="s">
+        <v>891</v>
+      </c>
+      <c r="F62">
+        <v>8.75</v>
+      </c>
+      <c r="G62" t="s">
+        <v>586</v>
+      </c>
+      <c r="H62" t="s">
+        <v>586</v>
+      </c>
+      <c r="I62" t="s">
+        <v>594</v>
+      </c>
+      <c r="J62" t="s">
+        <v>585</v>
+      </c>
+      <c r="K62" t="s">
+        <v>598</v>
+      </c>
+      <c r="L62" t="s">
+        <v>585</v>
+      </c>
+      <c r="M62" t="s">
+        <v>585</v>
+      </c>
+      <c r="N62" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>892</v>
+      </c>
+      <c r="B63" t="s">
+        <v>893</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>MENASSACybele</v>
+      </c>
+      <c r="D63" t="s">
+        <v>894</v>
+      </c>
+      <c r="E63" t="s">
+        <v>895</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>586</v>
+      </c>
+      <c r="H63" t="s">
+        <v>586</v>
+      </c>
+      <c r="I63" t="s">
+        <v>585</v>
+      </c>
+      <c r="J63" t="s">
+        <v>585</v>
+      </c>
+      <c r="K63" t="s">
+        <v>585</v>
+      </c>
+      <c r="L63" t="s">
+        <v>585</v>
+      </c>
+      <c r="M63" t="s">
+        <v>587</v>
+      </c>
+      <c r="N63" t="s">
+        <v>585</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA5C86A-E39C-9743-81FB-655593647FBB}">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>NEVEUXEleonore</v>
+      </c>
+      <c r="D2" t="s">
+        <v>760</v>
+      </c>
+      <c r="E2" t="s">
+        <v>896</v>
+      </c>
+      <c r="F2">
+        <v>9.5</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2.25</v>
+      </c>
+      <c r="J2">
+        <v>2.25</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C26" si="0">A3&amp;B3</f>
+        <v>SAMPERSLucile</v>
+      </c>
+      <c r="D3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" t="s">
+        <v>897</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2.25</v>
+      </c>
+      <c r="J3">
+        <v>2.25</v>
+      </c>
+      <c r="K3">
+        <v>2.5</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>CARETTEHugo</v>
+      </c>
+      <c r="D4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E4" t="s">
+        <v>898</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>NOLLET-PROISYLaurelenn</v>
+      </c>
+      <c r="D5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E5" t="s">
+        <v>899</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>627</v>
+      </c>
+      <c r="B6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>PELARDBerenice</v>
+      </c>
+      <c r="D6" t="s">
+        <v>629</v>
+      </c>
+      <c r="E6" t="s">
+        <v>900</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2.25</v>
+      </c>
+      <c r="J6">
+        <v>2.25</v>
+      </c>
+      <c r="K6">
+        <v>2.5</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>842</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>KIHLJeanne</v>
+      </c>
+      <c r="D7" t="s">
+        <v>843</v>
+      </c>
+      <c r="E7" t="s">
+        <v>901</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>PLATEAUCorentin</v>
+      </c>
+      <c r="D8" t="s">
+        <v>729</v>
+      </c>
+      <c r="E8" t="s">
+        <v>902</v>
+      </c>
+      <c r="F8">
+        <v>10.5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2.5</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>HARIR-FOROUCHAugustin</v>
+      </c>
+      <c r="D9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" t="s">
+        <v>903</v>
+      </c>
+      <c r="F9">
+        <v>11.75</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2.25</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2.5</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>PETITPaul</v>
+      </c>
+      <c r="D10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" t="s">
+        <v>673</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2.25</v>
+      </c>
+      <c r="J10">
+        <v>2.25</v>
+      </c>
+      <c r="K10">
+        <v>2.5</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>LEROUXPaul</v>
+      </c>
+      <c r="D11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E11" t="s">
+        <v>904</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>854</v>
+      </c>
+      <c r="B12" t="s">
+        <v>855</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>SENEZCeleste</v>
+      </c>
+      <c r="D12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E12" t="s">
+        <v>905</v>
+      </c>
+      <c r="F12">
+        <v>12.5</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2.5</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>669</v>
+      </c>
+      <c r="B13" t="s">
+        <v>670</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>ARNOULTEsteban</v>
+      </c>
+      <c r="D13" t="s">
+        <v>671</v>
+      </c>
+      <c r="E13" t="s">
+        <v>906</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>770</v>
+      </c>
+      <c r="B14" t="s">
+        <v>771</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>MONETAlizee</v>
+      </c>
+      <c r="D14" t="s">
+        <v>772</v>
+      </c>
+      <c r="E14" t="s">
+        <v>907</v>
+      </c>
+      <c r="F14">
+        <v>14.75</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2.25</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>2.5</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>697</v>
+      </c>
+      <c r="B15" t="s">
+        <v>698</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>GAY-BOISSIER-DESCOMBESAnoa</v>
+      </c>
+      <c r="D15" t="s">
+        <v>699</v>
+      </c>
+      <c r="E15" t="s">
+        <v>908</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>491</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>PECOURTBertille</v>
+      </c>
+      <c r="D16" t="s">
+        <v>492</v>
+      </c>
+      <c r="E16" t="s">
+        <v>909</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>869</v>
+      </c>
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>HARDYLouis</v>
+      </c>
+      <c r="D17" t="s">
+        <v>870</v>
+      </c>
+      <c r="E17" t="s">
+        <v>910</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>872</v>
+      </c>
+      <c r="B18" t="s">
+        <v>873</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>GANGNITOCassandre</v>
+      </c>
+      <c r="D18" t="s">
+        <v>874</v>
+      </c>
+      <c r="E18" t="s">
+        <v>911</v>
+      </c>
+      <c r="F18">
+        <v>12.25</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2.25</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" t="s">
+        <v>425</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>TROLLERemi</v>
+      </c>
+      <c r="D19" t="s">
+        <v>426</v>
+      </c>
+      <c r="E19" t="s">
+        <v>912</v>
+      </c>
+      <c r="F19">
+        <v>7.5</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>2.5</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>618</v>
+      </c>
+      <c r="B20" t="s">
+        <v>619</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>VINCANTManon</v>
+      </c>
+      <c r="D20" t="s">
+        <v>620</v>
+      </c>
+      <c r="E20" t="s">
+        <v>913</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>644</v>
+      </c>
+      <c r="B21" t="s">
+        <v>645</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>GUITTARDClementine</v>
+      </c>
+      <c r="D21" t="s">
+        <v>646</v>
+      </c>
+      <c r="E21" t="s">
+        <v>914</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>548</v>
+      </c>
+      <c r="B22" t="s">
+        <v>473</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>BOUTILLIERHugo</v>
+      </c>
+      <c r="D22" t="s">
+        <v>549</v>
+      </c>
+      <c r="E22" t="s">
+        <v>915</v>
+      </c>
+      <c r="F22">
+        <v>10.25</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>2.25</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>581</v>
+      </c>
+      <c r="B23" t="s">
+        <v>582</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>BOEHLEREnzo</v>
+      </c>
+      <c r="D23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E23" t="s">
+        <v>916</v>
+      </c>
+      <c r="F23">
+        <v>7.25</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2.25</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>576</v>
+      </c>
+      <c r="B24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>BERTEAUThomas</v>
+      </c>
+      <c r="D24" t="s">
+        <v>577</v>
+      </c>
+      <c r="E24" t="s">
+        <v>917</v>
+      </c>
+      <c r="F24">
+        <v>7.5</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2.5</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>GENTIENFlavie</v>
+      </c>
+      <c r="D25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" t="s">
+        <v>883</v>
+      </c>
+      <c r="F25">
+        <v>14.75</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2.25</v>
+      </c>
+      <c r="K25">
+        <v>2.5</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>775</v>
+      </c>
+      <c r="B26" t="s">
+        <v>609</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>OLIVIERCamille</v>
+      </c>
+      <c r="D26" t="s">
+        <v>776</v>
+      </c>
+      <c r="E26" t="s">
+        <v>918</v>
+      </c>
+      <c r="F26">
+        <v>4.5</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>2.25</v>
+      </c>
+      <c r="J26">
+        <v>2.25</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>892</v>
+      </c>
+      <c r="B27" t="s">
+        <v>893</v>
+      </c>
+      <c r="C27" t="str">
+        <f>A27&amp;B27</f>
+        <v>MENASSACybele</v>
+      </c>
+      <c r="D27" t="s">
+        <v>894</v>
+      </c>
+      <c r="E27" t="s">
+        <v>919</v>
+      </c>
+      <c r="F27">
+        <v>9.25</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2.25</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" t="str">
+        <f>A28&amp;B28</f>
+        <v>IMBAULTLouis</v>
+      </c>
+      <c r="D28" t="s">
+        <v>279</v>
+      </c>
+      <c r="E28" t="s">
+        <v>920</v>
+      </c>
+      <c r="F28">
+        <v>8.75</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2.25</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>2.5</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
